--- a/output/onkologia/2019/sheets/year_2019.xlsx
+++ b/output/onkologia/2019/sheets/year_2019.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15.06774193548387</v>
+        <v>31.61412607130358</v>
       </c>
       <c r="C2" t="n">
-        <v>4.032258064516129</v>
+        <v>31.71508160695036</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>2.903571428571428</v>
+        <v>36.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.367857142857143</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.248387096774194</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3.193333333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.246666666666667</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8.374193548387096</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.093548387096774</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.174193548387097</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.151612903225806</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.080645161290323</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5.736666666666666</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3.116129032258065</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.687096774193548</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.286666666666667</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.476666666666667</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.187096774193549</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.041935483870968</v>
+        <v>46.1</v>
       </c>
     </row>
   </sheetData>
